--- a/assets/Thrive Market/Thrive Market 856 Master Template.xlsx
+++ b/assets/Thrive Market/Thrive Market 856 Master Template.xlsx
@@ -16,11 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>THRIVE MARKET ASN</t>
   </si>
   <si>
+    <t>Admin Contact</t>
+  </si>
+  <si>
+    <t>Jennifer Kane</t>
+  </si>
+  <si>
+    <t>Admin Phone #</t>
+  </si>
+  <si>
+    <t>3039189805</t>
+  </si>
+  <si>
     <t>Ship From Name</t>
   </si>
   <si>
@@ -45,15 +57,6 @@
     <t>Ship To Add1</t>
   </si>
   <si>
-    <t>Ship From Add2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Ship To Add2</t>
-  </si>
-  <si>
     <t>Ship From City</t>
   </si>
   <si>
@@ -81,19 +84,16 @@
     <t>Shipment #</t>
   </si>
   <si>
+    <t>Shipment Date</t>
+  </si>
+  <si>
     <t>(mm/dd/yyyy)</t>
   </si>
   <si>
-    <t>Shipment Date</t>
-  </si>
-  <si>
     <t>Shipment Type</t>
   </si>
   <si>
-    <t>C - Cartons or P -Pallets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>C-Cartons/P-Pallets</t>
   </si>
   <si>
     <t>Vendor #</t>
@@ -102,36 +102,31 @@
     <t>Bill of Lading #</t>
   </si>
   <si>
-    <r>
-      <t>(4 digits)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>BOL or NA</t>
   </si>
   <si>
     <t>SCAC</t>
   </si>
   <si>
+    <t>(4 digits)</t>
+  </si>
+  <si>
     <t>PRO No</t>
   </si>
   <si>
+    <t>PRO # or NA</t>
+  </si>
+  <si>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
     <t>CC - Collect or PP - Prepaid</t>
   </si>
   <si>
-    <t>FOB</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Total Cartons / Pallets</t>
+    <t>Total Cartons or Pallets</t>
   </si>
   <si>
     <t>Total Weight</t>
@@ -140,9 +135,6 @@
     <t>20 Digit</t>
   </si>
   <si>
-    <t>12 Digit</t>
-  </si>
-  <si>
     <t>Expiration Date</t>
   </si>
   <si>
@@ -155,16 +147,16 @@
     <t>PO Date</t>
   </si>
   <si>
-    <t>UCC128 Carton Label</t>
+    <t>Carton Label #</t>
   </si>
   <si>
     <t>Vendor Part</t>
   </si>
   <si>
-    <t>UPC Number</t>
-  </si>
-  <si>
-    <t>Quantity</t>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
   <si>
     <t>UOM</t>
@@ -184,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -201,12 +192,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff99cc"/>
+        <fgColor rgb="FFc0c0c0"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,21 +222,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffcc99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -248,14 +235,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -311,26 +298,11 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFc6c6c6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -378,91 +350,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,28 +452,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -766,24 +729,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="27" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="27" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="27" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="27" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="27" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="24" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="15.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -792,427 +755,697 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
         <v>53135</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="12"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
         <v>80120</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>53135</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="12">
-        <v>53135</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="22"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="22"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="22"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="22"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="22"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="22"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Thrive Market/Thrive Market 856 Master Template.xlsx
+++ b/assets/Thrive Market/Thrive Market 856 Master Template.xlsx
@@ -186,12 +186,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -199,6 +193,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -376,9 +376,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -400,14 +397,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -735,18 +732,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="24" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="24" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="23" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="23" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="23" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="23" width="15.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -825,14 +822,14 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>53135</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -939,13 +936,13 @@
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="2"/>
@@ -959,14 +956,14 @@
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>53135</v>
       </c>
       <c r="F12" s="2"/>
@@ -982,14 +979,14 @@
         <v>27</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="2"/>
@@ -1003,8 +1000,8 @@
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1013,7 +1010,7 @@
       <c r="E14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="2"/>
@@ -1027,12 +1024,12 @@
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1056,396 +1053,396 @@
       <c r="L16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="14" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="22"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="22"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="22"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="22"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="22"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="22"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="22"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="22"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="22"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="22"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
